--- a/Federal/s8812-2020.xlsx
+++ b/Federal/s8812-2020.xlsx
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Enter the amount from line 8 of your Child Tax Credit and Credit for Other Dependents Worksheet (see the instructions for Forms 1040 and 1040-SR, line 13a).- 1040-NR filers: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Enter the amount from line 8 of your Child Tax Credit and Credit for </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Other Dependents Worksheet (see the instructions for Form 1040-NR, line 49).} </t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>2020  SCHEDULE 8812  Additional Child Tax Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter the amount from line 10 of your Child Tax Credit and Credit for </t>
   </si>
 </sst>
 </file>
@@ -403,25 +403,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,6 +411,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,7 +784,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -796,88 +796,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="23.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="A9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
@@ -891,41 +891,41 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="11">
         <f>F12-F13</f>
@@ -934,29 +934,29 @@
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="11">
         <f>F15*1400</f>
@@ -965,13 +965,13 @@
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11">
         <f>F15*1400</f>
@@ -979,26 +979,26 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="A18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="14">
         <f>MIN(F14,F17)</f>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="3"/>
@@ -1021,13 +1021,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="3"/>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="15">
         <f>IF(D20&gt;2500,D20-2500,0)</f>
@@ -1052,15 +1052,15 @@
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="11">
         <f>ROUND(D22*0.15,2)</f>
@@ -1068,26 +1068,26 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="23.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="16">
         <f>IF(F23=0,0,MIN(F19,F23))</f>
@@ -1096,15 +1096,15 @@
     </row>
     <row r="26" spans="1:6" ht="23.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="14">
         <f>IF(F23&gt;=F19,F19,0)</f>
@@ -1112,22 +1112,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="C28" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="1"/>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="29" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="3"/>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="19">
         <f>D28+D29</f>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="3"/>
@@ -1180,15 +1180,15 @@
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="16">
         <f>D30-D31</f>
@@ -1197,15 +1197,15 @@
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="16">
         <f>MAX(F32,F23)</f>
@@ -1215,7 +1215,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1223,24 +1223,24 @@
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="A35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="24">
         <f>MIN(F33,F19)</f>
@@ -1249,32 +1249,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
